--- a/StreamRes/ExcelTable/Excel/cn/GlobalData.xlsx
+++ b/StreamRes/ExcelTable/Excel/cn/GlobalData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>ID</t>
   </si>
@@ -70,6 +70,24 @@
   </si>
   <si>
     <t>10</t>
+  </si>
+  <si>
+    <t>1002</t>
+  </si>
+  <si>
+    <t>Cube0.Light.Range</t>
+  </si>
+  <si>
+    <t>10.5</t>
+  </si>
+  <si>
+    <t>1003</t>
+  </si>
+  <si>
+    <t>Cube0.Light.Type</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
 </sst>
 </file>
@@ -665,7 +683,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="54">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -811,6 +829,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="32" applyFill="1" borderId="0" applyBorder="1" xfId="48" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
@@ -1167,7 +1194,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
@@ -1175,78 +1202,106 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="3"/>
   <cols>
-    <col min="2" max="2" width="15.7777777777778" customWidth="1" style="50"/>
-    <col min="3" max="3" width="16.2222222222222" customWidth="1" style="50"/>
+    <col min="2" max="2" width="15.7777777777778" customWidth="1" style="53"/>
+    <col min="3" max="3" width="16.2222222222222" customWidth="1" style="53"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="C1" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="50" t="s">
+      <c r="D1" s="53" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="50" t="s">
+      <c r="C2" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="50" t="s">
+      <c r="D2" s="53" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="50" t="s">
+      <c r="D3" s="53" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="50" t="s">
+      <c r="C4" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="50" t="s">
+      <c r="D4" s="53" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="49" t="s">
+      <c r="A5" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="50" t="s">
+      <c r="C5" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="49" t="s">
+      <c r="D5" s="52" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="51" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="50" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
